--- a/03.設計/詳細設計書_STB02（GAME）.xlsx
+++ b/03.設計/詳細設計書_STB02（GAME）.xlsx
@@ -334,10 +334,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>ヒットチェック</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>&lt;ゲームの初期化&gt;</t>
     <rPh sb="5" eb="8">
       <t>ショキカ</t>
@@ -413,10 +409,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>・アイテムの効果を無効化する（）</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>エネミー情報を設定</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
@@ -594,22 +586,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>・[フィールドの１辺のブロック数 // 10]の数分エネミーを配置（）</t>
-    <rPh sb="9" eb="10">
-      <t>ヘン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>スウフン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>ゴールの配置設定</t>
     <rPh sb="4" eb="6">
       <t>ハイチ</t>
@@ -630,19 +606,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>・ゴール地点をフィールド上に配置（）</t>
-    <rPh sb="4" eb="6">
-      <t>チテン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>・ゴール生成用判定フラグをTrueに設定</t>
     <rPh sb="4" eb="9">
       <t>セイセイヨウハンテイ</t>
@@ -677,22 +640,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>・[フィールドの１辺のブロック数 // 10]の数分アイテムを配置（）</t>
-    <rPh sb="9" eb="10">
-      <t>ヘン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>スウフン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>・壁、ゴール、アイテム以外の通路すべてにポイントを配置</t>
     <rPh sb="1" eb="2">
       <t>カベ</t>
@@ -752,10 +699,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>&lt;ヒットチェック&gt;</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>ポイントヒット</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -872,34 +815,6 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>・アイテムブロックの小数点以下の数値を取得（）し、所持アイテム数配列の該当要素を +1 する</t>
-    <rPh sb="10" eb="15">
-      <t>ショウスウテンイカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ショジ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヨウソ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1495,6 +1410,103 @@
   </si>
   <si>
     <t>TM</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>オブジェクトヒット判定</t>
+    <rPh sb="9" eb="11">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>&lt;オブジェクトヒット判定&gt;</t>
+    <rPh sb="10" eb="12">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・アイテムの効果を無効化する（06_ITEM.&lt;アイテム無効化&gt;）</t>
+    <rPh sb="28" eb="31">
+      <t>ムコウカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・ゴール地点をフィールド上に配置（09_SGS.&lt;セットオブジェクト&gt;）</t>
+    <rPh sb="4" eb="6">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・[フィールドの１辺のブロック数 // 10]の数分エネミーを配置（09_SGS.&lt;セットオブジェクト&gt;）</t>
+    <rPh sb="9" eb="10">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>スウフン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・[フィールドの１辺のブロック数 // 10]の数分アイテムを配置（09_SGS.&lt;セットオブジェクト&gt;）</t>
+    <rPh sb="9" eb="10">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>スウフン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・アイテムブロックの小数点以下の数値を取得（06_ITEM.&lt;アイテム種類番号取得&gt;）し、所持アイテム数配列の該当要素を +1 する</t>
+    <rPh sb="10" eb="15">
+      <t>ショウスウテンイカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="35" eb="41">
+      <t>シュルイバンゴウシュトク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヨウソ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -2793,7 +2805,7 @@
       </c>
       <c r="G15" s="86"/>
       <c r="H15" s="87" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I15" s="88"/>
       <c r="J15" s="88"/>
@@ -2809,17 +2821,17 @@
       <c r="J16" s="88"/>
       <c r="K16" s="89"/>
       <c r="N16" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="7:16" ht="22.5" customHeight="1">
       <c r="N17" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="7:16" ht="22.5" customHeight="1">
       <c r="N18" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="7:16" ht="22.5" customHeight="1">
@@ -2994,7 +3006,7 @@
       </c>
       <c r="C5" s="96"/>
       <c r="D5" s="97" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E5" s="97"/>
       <c r="F5" s="97" t="s">
@@ -3491,7 +3503,7 @@
   <dimension ref="A1:AJ134"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
@@ -3684,7 +3696,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="19"/>
@@ -3724,7 +3736,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="19"/>
@@ -3744,7 +3756,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="19"/>
@@ -4098,7 +4110,7 @@
     </row>
     <row r="19" spans="1:36" ht="15" customHeight="1">
       <c r="A19" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
@@ -4141,7 +4153,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="17"/>
       <c r="AC20" s="27"/>
@@ -4167,7 +4179,7 @@
       <c r="I21" s="71"/>
       <c r="J21" s="67"/>
       <c r="K21" s="65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L21" s="65"/>
       <c r="M21" s="65"/>
@@ -4185,7 +4197,7 @@
       <c r="A22" s="57"/>
       <c r="B22" s="17"/>
       <c r="C22" s="68" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D22" s="69"/>
       <c r="E22" s="69"/>
@@ -4213,7 +4225,7 @@
       <c r="A23" s="57"/>
       <c r="B23" s="17"/>
       <c r="C23" s="68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="69"/>
       <c r="E23" s="69"/>
@@ -4241,7 +4253,7 @@
       <c r="A24" s="57"/>
       <c r="B24" s="17"/>
       <c r="C24" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="69"/>
       <c r="E24" s="69"/>
@@ -4269,7 +4281,7 @@
       <c r="A25" s="57"/>
       <c r="B25" s="17"/>
       <c r="C25" s="68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D25" s="69"/>
       <c r="E25" s="69"/>
@@ -4279,7 +4291,7 @@
       <c r="I25" s="69"/>
       <c r="J25" s="61"/>
       <c r="K25" s="69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L25" s="69"/>
       <c r="M25" s="69"/>
@@ -4297,7 +4309,7 @@
       <c r="A26" s="57"/>
       <c r="B26" s="17"/>
       <c r="C26" s="68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="69"/>
       <c r="E26" s="69"/>
@@ -4325,7 +4337,7 @@
       <c r="A27" s="57"/>
       <c r="B27" s="17"/>
       <c r="C27" s="68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="69"/>
       <c r="E27" s="69"/>
@@ -4353,7 +4365,7 @@
       <c r="A28" s="57"/>
       <c r="B28" s="17"/>
       <c r="C28" s="70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
@@ -4409,14 +4421,14 @@
     </row>
     <row r="31" spans="1:36" ht="15" customHeight="1">
       <c r="A31" s="57"/>
-      <c r="B31" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
+      <c r="B31" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
       <c r="AC31" s="27"/>
       <c r="AD31" s="26"/>
       <c r="AE31" s="41"/>
@@ -4454,7 +4466,7 @@
     </row>
     <row r="34" spans="1:36" ht="15" customHeight="1">
       <c r="A34" s="45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B34" s="17"/>
       <c r="G34" s="17"/>
@@ -4469,10 +4481,10 @@
     </row>
     <row r="35" spans="1:36" ht="15" customHeight="1">
       <c r="A35" s="82" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G35" s="17"/>
       <c r="AC35" s="27"/>
@@ -4489,7 +4501,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G36" s="17"/>
       <c r="AC36" s="27"/>
@@ -4505,7 +4517,7 @@
       <c r="A37" s="57"/>
       <c r="B37" s="17"/>
       <c r="C37" s="63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D37" s="64"/>
       <c r="E37" s="64"/>
@@ -4515,7 +4527,7 @@
       <c r="I37" s="71"/>
       <c r="J37" s="67"/>
       <c r="K37" s="65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L37" s="65"/>
       <c r="M37" s="65"/>
@@ -4536,7 +4548,7 @@
       <c r="A38" s="57"/>
       <c r="B38" s="17"/>
       <c r="C38" s="68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D38" s="69"/>
       <c r="E38" s="69"/>
@@ -4546,7 +4558,7 @@
       <c r="I38" s="69"/>
       <c r="J38" s="61"/>
       <c r="K38" s="69" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L38" s="69"/>
       <c r="M38" s="69"/>
@@ -4567,7 +4579,7 @@
       <c r="A39" s="57"/>
       <c r="B39" s="17"/>
       <c r="C39" s="68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D39" s="69"/>
       <c r="E39" s="69"/>
@@ -4577,7 +4589,7 @@
       <c r="I39" s="69"/>
       <c r="J39" s="61"/>
       <c r="K39" s="72" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L39" s="69"/>
       <c r="M39" s="69"/>
@@ -4598,7 +4610,7 @@
       <c r="A40" s="57"/>
       <c r="B40" s="17"/>
       <c r="C40" s="68" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D40" s="69"/>
       <c r="E40" s="69"/>
@@ -4608,7 +4620,7 @@
       <c r="I40" s="69"/>
       <c r="J40" s="61"/>
       <c r="K40" s="69" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L40" s="69"/>
       <c r="M40" s="69"/>
@@ -4643,7 +4655,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="62" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C42" s="62"/>
       <c r="D42" s="62"/>
@@ -4676,7 +4688,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G44" s="17"/>
       <c r="AC44" s="27"/>
@@ -4692,7 +4704,7 @@
       <c r="A45" s="57"/>
       <c r="B45" s="17"/>
       <c r="C45" s="63" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D45" s="64"/>
       <c r="E45" s="64"/>
@@ -4702,7 +4714,7 @@
       <c r="I45" s="71"/>
       <c r="J45" s="67"/>
       <c r="K45" s="65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L45" s="65"/>
       <c r="M45" s="65"/>
@@ -4723,7 +4735,7 @@
       <c r="A46" s="57"/>
       <c r="B46" s="17"/>
       <c r="C46" s="68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D46" s="69"/>
       <c r="E46" s="69"/>
@@ -4733,7 +4745,7 @@
       <c r="I46" s="69"/>
       <c r="J46" s="61"/>
       <c r="K46" s="69" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L46" s="69"/>
       <c r="M46" s="69"/>
@@ -4754,7 +4766,7 @@
       <c r="A47" s="57"/>
       <c r="B47" s="17"/>
       <c r="C47" s="68" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D47" s="69"/>
       <c r="E47" s="69"/>
@@ -4764,7 +4776,7 @@
       <c r="I47" s="69"/>
       <c r="J47" s="61"/>
       <c r="K47" s="69" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L47" s="69"/>
       <c r="M47" s="69"/>
@@ -4785,7 +4797,7 @@
       <c r="A48" s="57"/>
       <c r="B48" s="17"/>
       <c r="C48" s="68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D48" s="69"/>
       <c r="E48" s="69"/>
@@ -4795,7 +4807,7 @@
       <c r="I48" s="69"/>
       <c r="J48" s="61"/>
       <c r="K48" s="69" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L48" s="69"/>
       <c r="M48" s="69"/>
@@ -4816,7 +4828,7 @@
       <c r="A49" s="57"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G49" s="17"/>
       <c r="AC49" s="27"/>
@@ -4846,7 +4858,7 @@
         <v>37</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G51" s="17"/>
       <c r="AC51" s="27"/>
@@ -4861,7 +4873,7 @@
     <row r="52" spans="1:36" ht="15" customHeight="1">
       <c r="A52" s="57"/>
       <c r="B52" s="17" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G52" s="17"/>
       <c r="AC52" s="27"/>
@@ -4891,7 +4903,7 @@
         <v>38</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G54" s="17"/>
       <c r="AC54" s="27"/>
@@ -4905,20 +4917,20 @@
     </row>
     <row r="55" spans="1:36" ht="15" customHeight="1">
       <c r="A55" s="57"/>
-      <c r="B55" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
+      <c r="B55" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
       <c r="AC55" s="27"/>
       <c r="AD55" s="26"/>
       <c r="AE55" s="41"/>
@@ -4944,7 +4956,7 @@
         <v>39</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G57" s="17"/>
       <c r="AC57" s="27"/>
@@ -4957,15 +4969,15 @@
       <c r="AJ57" s="27"/>
     </row>
     <row r="58" spans="1:36" ht="15" customHeight="1">
-      <c r="B58" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="62"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62"/>
+      <c r="B58" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
       <c r="AC58" s="27"/>
       <c r="AD58" s="26"/>
       <c r="AE58" s="41"/>
@@ -4979,7 +4991,7 @@
       <c r="A59" s="57"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G59" s="17"/>
       <c r="AC59" s="27"/>
@@ -4994,7 +5006,7 @@
     <row r="60" spans="1:36" ht="15" customHeight="1">
       <c r="A60" s="57"/>
       <c r="B60" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G60" s="17"/>
       <c r="AC60" s="27"/>
@@ -5020,10 +5032,10 @@
     </row>
     <row r="62" spans="1:36" ht="15" customHeight="1">
       <c r="A62" s="59" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C62" s="44"/>
       <c r="D62" s="44"/>
@@ -5049,20 +5061,20 @@
       <c r="AJ62" s="27"/>
     </row>
     <row r="63" spans="1:36" ht="15" customHeight="1">
-      <c r="B63" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="62"/>
-      <c r="M63" s="62"/>
+      <c r="B63" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
       <c r="N63" s="44"/>
       <c r="O63" s="44"/>
       <c r="P63" s="44"/>
@@ -5077,7 +5089,7 @@
     </row>
     <row r="64" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="C64" s="17" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AC64" s="74"/>
       <c r="AD64" s="75"/>
@@ -5119,7 +5131,7 @@
         <v>41</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C66" s="44"/>
       <c r="D66" s="44"/>
@@ -5147,7 +5159,7 @@
     <row r="67" spans="1:36" ht="15" customHeight="1">
       <c r="A67" s="73"/>
       <c r="B67" s="44" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C67" s="44"/>
       <c r="D67" s="44"/>
@@ -5176,7 +5188,7 @@
       <c r="A68" s="73"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D68" s="44"/>
       <c r="E68" s="44"/>
@@ -5254,7 +5266,7 @@
     </row>
     <row r="71" spans="1:36" ht="15" customHeight="1">
       <c r="A71" s="45" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -5283,7 +5295,7 @@
     <row r="72" spans="1:36" ht="15" customHeight="1">
       <c r="A72" s="57"/>
       <c r="B72" s="17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C72" s="44"/>
       <c r="D72" s="44"/>
@@ -5312,7 +5324,7 @@
       <c r="A73" s="73"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D73" s="44"/>
       <c r="E73" s="44"/>
@@ -5365,7 +5377,7 @@
     <row r="75" spans="1:36" ht="15" customHeight="1">
       <c r="A75" s="73"/>
       <c r="B75" s="17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C75" s="44"/>
       <c r="D75" s="44"/>
@@ -5393,15 +5405,15 @@
     <row r="76" spans="1:36" ht="15" customHeight="1">
       <c r="A76" s="73"/>
       <c r="B76" s="44"/>
-      <c r="C76" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="62"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
+      <c r="C76" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
       <c r="J76" s="44"/>
       <c r="K76" s="44"/>
       <c r="L76" s="44"/>
@@ -5422,7 +5434,7 @@
       <c r="A77" s="57"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G77" s="17"/>
       <c r="AC77" s="27"/>
@@ -5458,7 +5470,7 @@
     </row>
     <row r="80" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A80" s="45" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="AC80" s="74"/>
       <c r="AD80" s="75"/>
@@ -5474,7 +5486,7 @@
         <v>33</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G81" s="17"/>
       <c r="AC81" s="27"/>
@@ -5489,7 +5501,7 @@
     <row r="82" spans="1:36" ht="15" customHeight="1">
       <c r="A82" s="57"/>
       <c r="B82" s="44" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G82" s="17"/>
       <c r="AC82" s="27"/>
@@ -5504,7 +5516,7 @@
     <row r="83" spans="1:36" ht="15" customHeight="1">
       <c r="A83" s="57"/>
       <c r="B83" s="44" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G83" s="17"/>
       <c r="AC83" s="27"/>
@@ -5519,7 +5531,7 @@
     <row r="84" spans="1:36" ht="15" customHeight="1">
       <c r="A84" s="57"/>
       <c r="B84" s="44" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G84" s="17"/>
       <c r="AC84" s="27"/>
@@ -5534,7 +5546,7 @@
     <row r="85" spans="1:36" ht="15" customHeight="1">
       <c r="A85" s="57"/>
       <c r="B85" s="44" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G85" s="17"/>
       <c r="AC85" s="27"/>
@@ -5549,7 +5561,7 @@
     <row r="86" spans="1:36" ht="15" customHeight="1">
       <c r="A86" s="57"/>
       <c r="B86" s="44" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G86" s="17"/>
       <c r="AC86" s="27"/>
@@ -5564,7 +5576,7 @@
     <row r="87" spans="1:36" ht="15" customHeight="1">
       <c r="A87" s="57"/>
       <c r="B87" s="44" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G87" s="17"/>
       <c r="AC87" s="27"/>
@@ -5580,7 +5592,7 @@
       <c r="A88" s="57"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G88" s="17"/>
       <c r="AC88" s="27"/>
@@ -5595,7 +5607,7 @@
     <row r="89" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A89" s="73"/>
       <c r="C89" s="44" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AC89" s="74"/>
       <c r="AD89" s="75"/>
@@ -5609,7 +5621,7 @@
     <row r="90" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A90" s="73"/>
       <c r="C90" s="44" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="AC90" s="74"/>
       <c r="AD90" s="75"/>
@@ -5633,10 +5645,10 @@
     </row>
     <row r="92" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A92" s="59" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AC92" s="74"/>
       <c r="AD92" s="75"/>
@@ -5650,7 +5662,7 @@
     <row r="93" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A93" s="57"/>
       <c r="B93" s="44" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AC93" s="74"/>
       <c r="AD93" s="75"/>
@@ -5664,13 +5676,8 @@
     <row r="94" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A94" s="57"/>
       <c r="B94" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="F94" s="62"/>
-      <c r="G94" s="62"/>
-      <c r="H94" s="62"/>
-      <c r="I94" s="62"/>
-      <c r="J94" s="62"/>
+        <v>158</v>
+      </c>
       <c r="AC94" s="74"/>
       <c r="AD94" s="75"/>
       <c r="AE94" s="76"/>
@@ -5683,7 +5690,7 @@
     <row r="95" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A95" s="73"/>
       <c r="B95" s="44" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AC95" s="74"/>
       <c r="AD95" s="75"/>
@@ -5707,10 +5714,10 @@
     </row>
     <row r="97" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A97" s="59" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="AC97" s="74"/>
       <c r="AD97" s="75"/>
@@ -5724,7 +5731,7 @@
     <row r="98" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A98" s="73"/>
       <c r="B98" s="44" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AC98" s="74"/>
       <c r="AD98" s="75"/>
@@ -5738,7 +5745,7 @@
     <row r="99" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="73"/>
       <c r="C99" s="44" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AC99" s="74"/>
       <c r="AD99" s="75"/>
@@ -5752,7 +5759,7 @@
     <row r="100" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="73"/>
       <c r="C100" s="44" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AC100" s="74"/>
       <c r="AD100" s="75"/>
@@ -5766,7 +5773,7 @@
     <row r="101" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A101" s="73"/>
       <c r="B101" s="44" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AC101" s="74"/>
       <c r="AD101" s="75"/>
@@ -5780,7 +5787,7 @@
     <row r="102" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="73"/>
       <c r="C102" s="44" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AC102" s="74"/>
       <c r="AD102" s="75"/>
@@ -5794,7 +5801,7 @@
     <row r="103" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="73"/>
       <c r="D103" s="44" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AC103" s="74"/>
       <c r="AD103" s="75"/>
@@ -5808,7 +5815,7 @@
     <row r="104" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="73"/>
       <c r="D104" s="44" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="AC104" s="74"/>
       <c r="AD104" s="75"/>
@@ -5822,12 +5829,12 @@
     <row r="105" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A105" s="73"/>
       <c r="E105" s="63" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F105" s="64"/>
       <c r="G105" s="64"/>
       <c r="H105" s="78" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I105" s="65"/>
       <c r="J105" s="66"/>
@@ -5847,12 +5854,12 @@
     <row r="106" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A106" s="73"/>
       <c r="E106" s="68" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F106" s="69"/>
       <c r="G106" s="69"/>
       <c r="H106" s="79" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I106" s="69"/>
       <c r="J106" s="61"/>
@@ -5872,12 +5879,12 @@
     <row r="107" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A107" s="73"/>
       <c r="E107" s="68" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F107" s="69"/>
       <c r="G107" s="69"/>
       <c r="H107" s="79" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I107" s="69"/>
       <c r="J107" s="61"/>
@@ -5897,12 +5904,12 @@
     <row r="108" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A108" s="73"/>
       <c r="E108" s="68" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F108" s="69"/>
       <c r="G108" s="69"/>
       <c r="H108" s="79" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I108" s="69"/>
       <c r="J108" s="61"/>
@@ -5922,7 +5929,7 @@
     <row r="109" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A109" s="73"/>
       <c r="D109" s="44" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E109" s="41"/>
       <c r="F109" s="41"/>
@@ -5946,7 +5953,7 @@
     <row r="110" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A110" s="73"/>
       <c r="D110" s="44" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E110" s="41"/>
       <c r="F110" s="41"/>
@@ -5970,7 +5977,7 @@
     <row r="111" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A111" s="77"/>
       <c r="C111" s="44" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="AC111" s="74"/>
       <c r="AD111" s="75"/>
@@ -5984,7 +5991,7 @@
     <row r="112" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A112" s="77"/>
       <c r="D112" s="44" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AC112" s="74"/>
       <c r="AD112" s="75"/>
@@ -5998,7 +6005,7 @@
     <row r="113" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A113" s="77"/>
       <c r="D113" s="44" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AC113" s="74"/>
       <c r="AD113" s="75"/>
@@ -6022,10 +6029,10 @@
     </row>
     <row r="115" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A115" s="59" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="AC115" s="74"/>
       <c r="AD115" s="75"/>
@@ -6039,7 +6046,7 @@
     <row r="116" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A116" s="77"/>
       <c r="B116" s="44" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AC116" s="74"/>
       <c r="AD116" s="75"/>
@@ -6053,7 +6060,7 @@
     <row r="117" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A117" s="77"/>
       <c r="C117" s="44" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="AC117" s="74"/>
       <c r="AD117" s="75"/>
@@ -6067,7 +6074,7 @@
     <row r="118" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A118" s="77"/>
       <c r="C118" s="17" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="AC118" s="74"/>
       <c r="AD118" s="75"/>
@@ -6081,7 +6088,7 @@
     <row r="119" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A119" s="77"/>
       <c r="C119" s="17" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AC119" s="74"/>
       <c r="AD119" s="75"/>
@@ -6095,7 +6102,7 @@
     <row r="120" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A120" s="77"/>
       <c r="B120" s="44" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AC120" s="74"/>
       <c r="AD120" s="75"/>
@@ -6109,7 +6116,7 @@
     <row r="121" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A121" s="77"/>
       <c r="C121" s="44" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AC121" s="74"/>
       <c r="AD121" s="75"/>
@@ -6123,7 +6130,7 @@
     <row r="122" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A122" s="77"/>
       <c r="B122" s="44" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="AC122" s="74"/>
       <c r="AD122" s="75"/>
@@ -6137,7 +6144,7 @@
     <row r="123" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A123" s="77"/>
       <c r="C123" s="44" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AC123" s="74"/>
       <c r="AD123" s="75"/>
@@ -6172,7 +6179,7 @@
     </row>
     <row r="126" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A126" s="83" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="AC126" s="74"/>
       <c r="AD126" s="75"/>
@@ -6185,10 +6192,10 @@
     </row>
     <row r="127" spans="1:36" ht="15" customHeight="1">
       <c r="A127" s="59" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B127" s="44" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G127" s="17"/>
       <c r="AC127" s="27"/>
@@ -6204,7 +6211,7 @@
       <c r="A128" s="57"/>
       <c r="B128" s="44"/>
       <c r="C128" s="17" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G128" s="17"/>
       <c r="AC128" s="27"/>
@@ -6220,12 +6227,12 @@
       <c r="A129" s="57"/>
       <c r="B129" s="17"/>
       <c r="C129" s="63" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D129" s="64"/>
       <c r="E129" s="64"/>
       <c r="F129" s="78" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G129" s="65"/>
       <c r="H129" s="65"/>
@@ -6251,12 +6258,12 @@
       <c r="A130" s="57"/>
       <c r="B130" s="17"/>
       <c r="C130" s="68" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D130" s="69"/>
       <c r="E130" s="69"/>
       <c r="F130" s="79" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G130" s="69"/>
       <c r="H130" s="69"/>
@@ -6282,12 +6289,12 @@
       <c r="A131" s="57"/>
       <c r="B131" s="17"/>
       <c r="C131" s="68" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D131" s="69"/>
       <c r="E131" s="69"/>
       <c r="F131" s="79" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G131" s="69"/>
       <c r="H131" s="69"/>
@@ -6313,12 +6320,12 @@
       <c r="A132" s="57"/>
       <c r="B132" s="17"/>
       <c r="C132" s="68" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D132" s="69"/>
       <c r="E132" s="69"/>
       <c r="F132" s="79" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G132" s="69"/>
       <c r="H132" s="69"/>
@@ -6343,12 +6350,12 @@
     <row r="133" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A133" s="73"/>
       <c r="C133" s="68" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D133" s="69"/>
       <c r="E133" s="69"/>
       <c r="F133" s="79" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G133" s="69"/>
       <c r="H133" s="69"/>
@@ -6453,10 +6460,10 @@
   <sheetData>
     <row r="3" spans="2:3" ht="13.2" customHeight="1">
       <c r="B3" s="120" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C3" s="120" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -6529,10 +6536,10 @@
     </row>
     <row r="23" spans="2:3" ht="13.2" customHeight="1">
       <c r="B23" s="120" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C23" s="121" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -6605,10 +6612,10 @@
     </row>
     <row r="43" spans="2:3" ht="13.2" customHeight="1">
       <c r="B43" s="120" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C43" s="121" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="2:3">

--- a/03.設計/詳細設計書_STB02（GAME）.xlsx
+++ b/03.設計/詳細設計書_STB02（GAME）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micch\OneDrive\デスクトップ\PGP_source\03.設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micch\OneDrive\デスクトップ\PGP\03.設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -477,13 +477,6 @@
     <t>20秒</t>
     <rPh sb="2" eb="3">
       <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>エネミーの初期化（）</t>
-    <rPh sb="5" eb="8">
-      <t>ショキカ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1405,14 +1398,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>TM</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>TM</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>オブジェクトヒット判定</t>
     <rPh sb="9" eb="11">
       <t>ハンテイ</t>
@@ -1506,6 +1491,24 @@
     </rPh>
     <rPh sb="57" eb="59">
       <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>MT</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MT</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>エネミーの初期化（07_DRAW.&lt;エネミーの初期化&gt;）</t>
+    <rPh sb="5" eb="8">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ショキカ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1635,7 +1638,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1651,12 +1654,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1955,7 +1952,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2140,24 +2137,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2167,7 +2161,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2188,7 +2182,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2227,6 +2221,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2242,23 +2254,50 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2268,51 +2307,6 @@
     </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2700,34 +2694,34 @@
     </row>
     <row r="6" spans="3:16" ht="49.2" customHeight="1">
       <c r="C6" s="7"/>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="3:16" ht="49.2" customHeight="1">
       <c r="C7" s="7"/>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -2746,92 +2740,92 @@
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickTop="1"/>
     <row r="11" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F11" s="85" t="s">
+      <c r="F11" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87" t="s">
+      <c r="G11" s="85"/>
+      <c r="H11" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="89"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
     </row>
     <row r="12" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F12" s="85" t="s">
+      <c r="F12" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="86"/>
-      <c r="H12" s="85" t="s">
+      <c r="G12" s="85"/>
+      <c r="H12" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="86"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="85"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
     </row>
     <row r="13" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F13" s="85" t="s">
+      <c r="F13" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="86"/>
-      <c r="H13" s="87" t="s">
+      <c r="G13" s="85"/>
+      <c r="H13" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="88"/>
     </row>
     <row r="14" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F14" s="85" t="s">
+      <c r="F14" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87" t="s">
+      <c r="G14" s="85"/>
+      <c r="H14" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="88"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F15" s="85" t="s">
+      <c r="F15" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="89"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="88"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F16" s="85" t="s">
+      <c r="F16" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="86"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="89"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="88"/>
       <c r="N16" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="7:16" ht="22.5" customHeight="1">
       <c r="N17" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="7:16" ht="22.5" customHeight="1">
       <c r="N18" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="7:16" ht="22.5" customHeight="1">
@@ -2894,58 +2888,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
       <c r="P1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="93" t="str">
+      <c r="Q1" s="98" t="str">
         <f>D5</f>
-        <v>TM</v>
-      </c>
-      <c r="R1" s="93"/>
+        <v>MT</v>
+      </c>
+      <c r="R1" s="98"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
       <c r="P2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="94">
+      <c r="Q2" s="99">
         <f>B5</f>
         <v>45170</v>
       </c>
-      <c r="R2" s="93"/>
+      <c r="R2" s="98"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="20"/>
@@ -2971,435 +2965,435 @@
       <c r="A4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95" t="s">
+      <c r="E4" s="100"/>
+      <c r="F4" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95" t="s">
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="22">
         <v>1</v>
       </c>
-      <c r="B5" s="96">
+      <c r="B5" s="93">
         <v>45170</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97" t="s">
+      <c r="C5" s="93"/>
+      <c r="D5" s="94" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="98" t="s">
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="23">
         <v>4</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="23">
         <v>5</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="23">
         <v>6</v>
       </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="101"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="23">
         <v>7</v>
       </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="23">
         <v>8</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="92"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="23">
         <v>9</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="23">
         <v>10</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="92"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="23">
         <v>11</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="23">
         <v>12</v>
       </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="23">
         <v>13</v>
       </c>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="101"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="92"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="23">
         <v>14</v>
       </c>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="101"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="23">
         <v>15</v>
       </c>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="101"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="23">
         <v>16</v>
       </c>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="101"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="92"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="23">
         <v>17</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="101"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="92"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="23">
         <v>18</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="101"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="92"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -3410,6 +3404,78 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:R20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:H21"/>
@@ -3418,78 +3484,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:R4"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -3519,112 +3513,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="105" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="117" t="str">
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="113" t="str">
         <f>表紙!D6</f>
         <v>Street Biter (STB)</v>
       </c>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="105" t="s">
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="103" t="str">
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="117" t="str">
         <f>更新履歴!D5</f>
-        <v>TM</v>
-      </c>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103" t="s">
+        <v>MT</v>
+      </c>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="102" t="str">
+      <c r="AF1" s="117"/>
+      <c r="AG1" s="116" t="str">
         <f>VLOOKUP(MAX(更新履歴!B:B),更新履歴!B:D,3,FALSE)</f>
-        <v>TM</v>
-      </c>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
+        <v>MT</v>
+      </c>
+      <c r="AH1" s="117"/>
+      <c r="AI1" s="117"/>
+      <c r="AJ1" s="117"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="110"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="105" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="114" t="str">
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="110" t="str">
         <f>RIGHT(表紙!D7,LEN(表紙!D7)-FIND("_",表紙!D7))</f>
         <v>02_GAME</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="105" t="s">
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="104">
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="118">
         <f>更新履歴!B5</f>
         <v>45170</v>
       </c>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="103" t="s">
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="104">
+      <c r="AF2" s="117"/>
+      <c r="AG2" s="118">
         <f>MAX(更新履歴!B:B)</f>
         <v>45170</v>
       </c>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="118"/>
+      <c r="AJ2" s="118"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
       <c r="A3" s="35"/>
@@ -3696,7 +3690,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="19"/>
@@ -3736,7 +3730,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="19"/>
@@ -3756,7 +3750,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="19"/>
@@ -4168,22 +4162,22 @@
     <row r="21" spans="1:36" ht="15" customHeight="1">
       <c r="A21" s="57"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="65" t="s">
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="66"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="65"/>
       <c r="AC21" s="27"/>
       <c r="AD21" s="26"/>
       <c r="AE21" s="41"/>
@@ -4196,21 +4190,21 @@
     <row r="22" spans="1:36" ht="15" customHeight="1">
       <c r="A22" s="57"/>
       <c r="B22" s="17"/>
-      <c r="C22" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
+      <c r="C22" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
       <c r="J22" s="61"/>
-      <c r="K22" s="69">
+      <c r="K22" s="68">
         <v>17</v>
       </c>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
       <c r="N22" s="61"/>
       <c r="AC22" s="27"/>
       <c r="AD22" s="26"/>
@@ -4224,21 +4218,21 @@
     <row r="23" spans="1:36" ht="15" customHeight="1">
       <c r="A23" s="57"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
       <c r="J23" s="61"/>
-      <c r="K23" s="69">
+      <c r="K23" s="68">
         <v>0</v>
       </c>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
       <c r="N23" s="61"/>
       <c r="AC23" s="27"/>
       <c r="AD23" s="26"/>
@@ -4252,21 +4246,21 @@
     <row r="24" spans="1:36" ht="15" customHeight="1">
       <c r="A24" s="57"/>
       <c r="B24" s="17"/>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
       <c r="J24" s="61"/>
-      <c r="K24" s="69">
+      <c r="K24" s="68">
         <v>2</v>
       </c>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
       <c r="N24" s="61"/>
       <c r="AC24" s="27"/>
       <c r="AD24" s="26"/>
@@ -4280,21 +4274,21 @@
     <row r="25" spans="1:36" ht="15" customHeight="1">
       <c r="A25" s="57"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
+      <c r="C25" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
       <c r="J25" s="61"/>
-      <c r="K25" s="69" t="s">
+      <c r="K25" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
       <c r="N25" s="61"/>
       <c r="AC25" s="27"/>
       <c r="AD25" s="26"/>
@@ -4308,21 +4302,21 @@
     <row r="26" spans="1:36" ht="15" customHeight="1">
       <c r="A26" s="57"/>
       <c r="B26" s="17"/>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
       <c r="J26" s="61"/>
-      <c r="K26" s="69">
+      <c r="K26" s="68">
         <v>0</v>
       </c>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
       <c r="N26" s="61"/>
       <c r="AC26" s="27"/>
       <c r="AD26" s="26"/>
@@ -4336,21 +4330,21 @@
     <row r="27" spans="1:36" ht="15" customHeight="1">
       <c r="A27" s="57"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
       <c r="J27" s="61"/>
-      <c r="K27" s="69">
+      <c r="K27" s="68">
         <v>0</v>
       </c>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
       <c r="N27" s="61"/>
       <c r="AC27" s="27"/>
       <c r="AD27" s="26"/>
@@ -4364,7 +4358,7 @@
     <row r="28" spans="1:36" ht="15" customHeight="1">
       <c r="A28" s="57"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="69" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="30"/>
@@ -4374,7 +4368,7 @@
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
       <c r="J28" s="31"/>
-      <c r="K28" s="69">
+      <c r="K28" s="68">
         <v>0</v>
       </c>
       <c r="L28" s="30"/>
@@ -4422,7 +4416,7 @@
     <row r="31" spans="1:36" ht="15" customHeight="1">
       <c r="A31" s="57"/>
       <c r="B31" s="44" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
@@ -4466,7 +4460,7 @@
     </row>
     <row r="34" spans="1:36" ht="15" customHeight="1">
       <c r="A34" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="17"/>
       <c r="G34" s="17"/>
@@ -4480,11 +4474,11 @@
       <c r="AJ34" s="27"/>
     </row>
     <row r="35" spans="1:36" ht="15" customHeight="1">
-      <c r="A35" s="82" t="s">
+      <c r="A35" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>136</v>
       </c>
       <c r="G35" s="17"/>
       <c r="AC35" s="27"/>
@@ -4516,25 +4510,25 @@
     <row r="37" spans="1:36" ht="15" customHeight="1">
       <c r="A37" s="57"/>
       <c r="B37" s="17"/>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="65" t="s">
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="65"/>
-      <c r="P37" s="65"/>
-      <c r="Q37" s="66"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="65"/>
       <c r="AC37" s="27"/>
       <c r="AD37" s="26"/>
       <c r="AE37" s="41"/>
@@ -4547,24 +4541,24 @@
     <row r="38" spans="1:36" ht="15" customHeight="1">
       <c r="A38" s="57"/>
       <c r="B38" s="17"/>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
       <c r="J38" s="61"/>
-      <c r="K38" s="69" t="s">
+      <c r="K38" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="L38" s="69"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="69"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
       <c r="Q38" s="61"/>
       <c r="AC38" s="27"/>
       <c r="AD38" s="26"/>
@@ -4578,24 +4572,24 @@
     <row r="39" spans="1:36" ht="15" customHeight="1">
       <c r="A39" s="57"/>
       <c r="B39" s="17"/>
-      <c r="C39" s="68" t="s">
+      <c r="C39" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
       <c r="J39" s="61"/>
-      <c r="K39" s="72" t="s">
+      <c r="K39" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="L39" s="69"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="69"/>
-      <c r="O39" s="69"/>
-      <c r="P39" s="69"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="68"/>
       <c r="Q39" s="61"/>
       <c r="AC39" s="27"/>
       <c r="AD39" s="26"/>
@@ -4609,24 +4603,24 @@
     <row r="40" spans="1:36" ht="15" customHeight="1">
       <c r="A40" s="57"/>
       <c r="B40" s="17"/>
-      <c r="C40" s="68" t="s">
+      <c r="C40" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="69"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
       <c r="J40" s="61"/>
-      <c r="K40" s="69" t="s">
+      <c r="K40" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="L40" s="69"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="69"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="69"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="68"/>
       <c r="Q40" s="61"/>
       <c r="AC40" s="27"/>
       <c r="AD40" s="26"/>
@@ -4654,12 +4648,12 @@
       <c r="A42" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
+      <c r="B42" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
       <c r="G42" s="17"/>
       <c r="AC42" s="27"/>
       <c r="AD42" s="26"/>
@@ -4688,7 +4682,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G44" s="17"/>
       <c r="AC44" s="27"/>
@@ -4703,25 +4697,25 @@
     <row r="45" spans="1:36" ht="15" customHeight="1">
       <c r="A45" s="57"/>
       <c r="B45" s="17"/>
-      <c r="C45" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="65" t="s">
+      <c r="C45" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="L45" s="65"/>
-      <c r="M45" s="65"/>
-      <c r="N45" s="65"/>
-      <c r="O45" s="65"/>
-      <c r="P45" s="65"/>
-      <c r="Q45" s="66"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="65"/>
       <c r="AC45" s="27"/>
       <c r="AD45" s="26"/>
       <c r="AE45" s="41"/>
@@ -4734,24 +4728,24 @@
     <row r="46" spans="1:36" ht="15" customHeight="1">
       <c r="A46" s="57"/>
       <c r="B46" s="17"/>
-      <c r="C46" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
+      <c r="C46" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
       <c r="J46" s="61"/>
-      <c r="K46" s="69" t="s">
+      <c r="K46" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="L46" s="69"/>
-      <c r="M46" s="69"/>
-      <c r="N46" s="69"/>
-      <c r="O46" s="69"/>
-      <c r="P46" s="69"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="68"/>
       <c r="Q46" s="61"/>
       <c r="AC46" s="27"/>
       <c r="AD46" s="26"/>
@@ -4765,24 +4759,24 @@
     <row r="47" spans="1:36" ht="15" customHeight="1">
       <c r="A47" s="57"/>
       <c r="B47" s="17"/>
-      <c r="C47" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
+      <c r="C47" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
       <c r="J47" s="61"/>
-      <c r="K47" s="69" t="s">
+      <c r="K47" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="L47" s="69"/>
-      <c r="M47" s="69"/>
-      <c r="N47" s="69"/>
-      <c r="O47" s="69"/>
-      <c r="P47" s="69"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="68"/>
       <c r="Q47" s="61"/>
       <c r="AC47" s="27"/>
       <c r="AD47" s="26"/>
@@ -4796,24 +4790,24 @@
     <row r="48" spans="1:36" ht="15" customHeight="1">
       <c r="A48" s="57"/>
       <c r="B48" s="17"/>
-      <c r="C48" s="68" t="s">
+      <c r="C48" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="L48" s="69"/>
-      <c r="M48" s="69"/>
-      <c r="N48" s="69"/>
-      <c r="O48" s="69"/>
-      <c r="P48" s="69"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="68"/>
+      <c r="O48" s="68"/>
+      <c r="P48" s="68"/>
       <c r="Q48" s="61"/>
       <c r="AC48" s="27"/>
       <c r="AD48" s="26"/>
@@ -4828,7 +4822,7 @@
       <c r="A49" s="57"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G49" s="17"/>
       <c r="AC49" s="27"/>
@@ -4858,7 +4852,7 @@
         <v>37</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G51" s="17"/>
       <c r="AC51" s="27"/>
@@ -4873,7 +4867,7 @@
     <row r="52" spans="1:36" ht="15" customHeight="1">
       <c r="A52" s="57"/>
       <c r="B52" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G52" s="17"/>
       <c r="AC52" s="27"/>
@@ -4903,7 +4897,7 @@
         <v>38</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G54" s="17"/>
       <c r="AC54" s="27"/>
@@ -4918,7 +4912,7 @@
     <row r="55" spans="1:36" ht="15" customHeight="1">
       <c r="A55" s="57"/>
       <c r="B55" s="44" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C55" s="44"/>
       <c r="D55" s="44"/>
@@ -4941,22 +4935,22 @@
       <c r="AJ55" s="27"/>
     </row>
     <row r="56" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A56" s="73"/>
-      <c r="AC56" s="74"/>
-      <c r="AD56" s="75"/>
-      <c r="AE56" s="76"/>
-      <c r="AF56" s="76"/>
-      <c r="AG56" s="76"/>
-      <c r="AH56" s="76"/>
-      <c r="AI56" s="76"/>
-      <c r="AJ56" s="74"/>
+      <c r="A56" s="72"/>
+      <c r="AC56" s="73"/>
+      <c r="AD56" s="74"/>
+      <c r="AE56" s="75"/>
+      <c r="AF56" s="75"/>
+      <c r="AG56" s="75"/>
+      <c r="AH56" s="75"/>
+      <c r="AI56" s="75"/>
+      <c r="AJ56" s="73"/>
     </row>
     <row r="57" spans="1:36" ht="15" customHeight="1">
       <c r="A57" s="59" t="s">
         <v>39</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G57" s="17"/>
       <c r="AC57" s="27"/>
@@ -4970,7 +4964,7 @@
     </row>
     <row r="58" spans="1:36" ht="15" customHeight="1">
       <c r="B58" s="44" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C58" s="44"/>
       <c r="D58" s="44"/>
@@ -4991,7 +4985,7 @@
       <c r="A59" s="57"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G59" s="17"/>
       <c r="AC59" s="27"/>
@@ -5006,7 +5000,7 @@
     <row r="60" spans="1:36" ht="15" customHeight="1">
       <c r="A60" s="57"/>
       <c r="B60" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G60" s="17"/>
       <c r="AC60" s="27"/>
@@ -5032,10 +5026,10 @@
     </row>
     <row r="62" spans="1:36" ht="15" customHeight="1">
       <c r="A62" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="17" t="s">
         <v>78</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>79</v>
       </c>
       <c r="C62" s="44"/>
       <c r="D62" s="44"/>
@@ -5062,7 +5056,7 @@
     </row>
     <row r="63" spans="1:36" ht="15" customHeight="1">
       <c r="B63" s="44" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C63" s="44"/>
       <c r="D63" s="44"/>
@@ -5089,19 +5083,19 @@
     </row>
     <row r="64" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="C64" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC64" s="74"/>
-      <c r="AD64" s="75"/>
-      <c r="AE64" s="76"/>
-      <c r="AF64" s="76"/>
-      <c r="AG64" s="76"/>
-      <c r="AH64" s="76"/>
-      <c r="AI64" s="76"/>
-      <c r="AJ64" s="74"/>
+        <v>137</v>
+      </c>
+      <c r="AC64" s="73"/>
+      <c r="AD64" s="74"/>
+      <c r="AE64" s="75"/>
+      <c r="AF64" s="75"/>
+      <c r="AG64" s="75"/>
+      <c r="AH64" s="75"/>
+      <c r="AI64" s="75"/>
+      <c r="AJ64" s="73"/>
     </row>
     <row r="65" spans="1:36" ht="15" customHeight="1">
-      <c r="A65" s="73"/>
+      <c r="A65" s="72"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
       <c r="D65" s="44"/>
@@ -5131,7 +5125,7 @@
         <v>41</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C66" s="44"/>
       <c r="D66" s="44"/>
@@ -5157,9 +5151,9 @@
       <c r="AJ66" s="27"/>
     </row>
     <row r="67" spans="1:36" ht="15" customHeight="1">
-      <c r="A67" s="73"/>
+      <c r="A67" s="72"/>
       <c r="B67" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C67" s="44"/>
       <c r="D67" s="44"/>
@@ -5185,10 +5179,10 @@
       <c r="AJ67" s="27"/>
     </row>
     <row r="68" spans="1:36" ht="15" customHeight="1">
-      <c r="A68" s="73"/>
+      <c r="A68" s="72"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D68" s="44"/>
       <c r="E68" s="44"/>
@@ -5213,7 +5207,7 @@
       <c r="AJ68" s="27"/>
     </row>
     <row r="69" spans="1:36" ht="15" customHeight="1">
-      <c r="A69" s="73"/>
+      <c r="A69" s="72"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
       <c r="D69" s="44"/>
@@ -5239,7 +5233,7 @@
       <c r="AJ69" s="27"/>
     </row>
     <row r="70" spans="1:36" ht="15" customHeight="1">
-      <c r="A70" s="73"/>
+      <c r="A70" s="72"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
       <c r="D70" s="44"/>
@@ -5266,7 +5260,7 @@
     </row>
     <row r="71" spans="1:36" ht="15" customHeight="1">
       <c r="A71" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -5295,7 +5289,7 @@
     <row r="72" spans="1:36" ht="15" customHeight="1">
       <c r="A72" s="57"/>
       <c r="B72" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C72" s="44"/>
       <c r="D72" s="44"/>
@@ -5321,10 +5315,10 @@
       <c r="AJ72" s="27"/>
     </row>
     <row r="73" spans="1:36" ht="15" customHeight="1">
-      <c r="A73" s="73"/>
+      <c r="A73" s="72"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D73" s="44"/>
       <c r="E73" s="44"/>
@@ -5349,7 +5343,7 @@
       <c r="AJ73" s="27"/>
     </row>
     <row r="74" spans="1:36" ht="15" customHeight="1">
-      <c r="A74" s="73"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
       <c r="D74" s="44"/>
@@ -5375,9 +5369,9 @@
       <c r="AJ74" s="27"/>
     </row>
     <row r="75" spans="1:36" ht="15" customHeight="1">
-      <c r="A75" s="73"/>
+      <c r="A75" s="72"/>
       <c r="B75" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="44"/>
       <c r="D75" s="44"/>
@@ -5403,10 +5397,10 @@
       <c r="AJ75" s="27"/>
     </row>
     <row r="76" spans="1:36" ht="15" customHeight="1">
-      <c r="A76" s="73"/>
+      <c r="A76" s="72"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D76" s="44"/>
       <c r="E76" s="44"/>
@@ -5434,7 +5428,7 @@
       <c r="A77" s="57"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G77" s="17"/>
       <c r="AC77" s="27"/>
@@ -5447,46 +5441,46 @@
       <c r="AJ77" s="27"/>
     </row>
     <row r="78" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A78" s="77"/>
-      <c r="AC78" s="74"/>
-      <c r="AD78" s="75"/>
-      <c r="AE78" s="76"/>
-      <c r="AF78" s="76"/>
-      <c r="AG78" s="76"/>
-      <c r="AH78" s="76"/>
-      <c r="AI78" s="76"/>
-      <c r="AJ78" s="74"/>
+      <c r="A78" s="76"/>
+      <c r="AC78" s="73"/>
+      <c r="AD78" s="74"/>
+      <c r="AE78" s="75"/>
+      <c r="AF78" s="75"/>
+      <c r="AG78" s="75"/>
+      <c r="AH78" s="75"/>
+      <c r="AI78" s="75"/>
+      <c r="AJ78" s="73"/>
     </row>
     <row r="79" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A79" s="77"/>
-      <c r="AC79" s="74"/>
-      <c r="AD79" s="75"/>
-      <c r="AE79" s="76"/>
-      <c r="AF79" s="76"/>
-      <c r="AG79" s="76"/>
-      <c r="AH79" s="76"/>
-      <c r="AI79" s="76"/>
-      <c r="AJ79" s="74"/>
+      <c r="A79" s="76"/>
+      <c r="AC79" s="73"/>
+      <c r="AD79" s="74"/>
+      <c r="AE79" s="75"/>
+      <c r="AF79" s="75"/>
+      <c r="AG79" s="75"/>
+      <c r="AH79" s="75"/>
+      <c r="AI79" s="75"/>
+      <c r="AJ79" s="73"/>
     </row>
     <row r="80" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A80" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC80" s="74"/>
-      <c r="AD80" s="75"/>
-      <c r="AE80" s="76"/>
-      <c r="AF80" s="76"/>
-      <c r="AG80" s="76"/>
-      <c r="AH80" s="76"/>
-      <c r="AI80" s="76"/>
-      <c r="AJ80" s="74"/>
+        <v>150</v>
+      </c>
+      <c r="AC80" s="73"/>
+      <c r="AD80" s="74"/>
+      <c r="AE80" s="75"/>
+      <c r="AF80" s="75"/>
+      <c r="AG80" s="75"/>
+      <c r="AH80" s="75"/>
+      <c r="AI80" s="75"/>
+      <c r="AJ80" s="73"/>
     </row>
     <row r="81" spans="1:36" ht="15" customHeight="1">
       <c r="A81" s="57" t="s">
         <v>33</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G81" s="17"/>
       <c r="AC81" s="27"/>
@@ -5501,7 +5495,7 @@
     <row r="82" spans="1:36" ht="15" customHeight="1">
       <c r="A82" s="57"/>
       <c r="B82" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G82" s="17"/>
       <c r="AC82" s="27"/>
@@ -5516,7 +5510,7 @@
     <row r="83" spans="1:36" ht="15" customHeight="1">
       <c r="A83" s="57"/>
       <c r="B83" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G83" s="17"/>
       <c r="AC83" s="27"/>
@@ -5531,7 +5525,7 @@
     <row r="84" spans="1:36" ht="15" customHeight="1">
       <c r="A84" s="57"/>
       <c r="B84" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G84" s="17"/>
       <c r="AC84" s="27"/>
@@ -5546,7 +5540,7 @@
     <row r="85" spans="1:36" ht="15" customHeight="1">
       <c r="A85" s="57"/>
       <c r="B85" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G85" s="17"/>
       <c r="AC85" s="27"/>
@@ -5561,7 +5555,7 @@
     <row r="86" spans="1:36" ht="15" customHeight="1">
       <c r="A86" s="57"/>
       <c r="B86" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G86" s="17"/>
       <c r="AC86" s="27"/>
@@ -5576,7 +5570,7 @@
     <row r="87" spans="1:36" ht="15" customHeight="1">
       <c r="A87" s="57"/>
       <c r="B87" s="44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G87" s="17"/>
       <c r="AC87" s="27"/>
@@ -5592,7 +5586,7 @@
       <c r="A88" s="57"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G88" s="17"/>
       <c r="AC88" s="27"/>
@@ -5605,597 +5599,597 @@
       <c r="AJ88" s="27"/>
     </row>
     <row r="89" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A89" s="73"/>
+      <c r="A89" s="72"/>
       <c r="C89" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC89" s="74"/>
-      <c r="AD89" s="75"/>
-      <c r="AE89" s="76"/>
-      <c r="AF89" s="76"/>
-      <c r="AG89" s="76"/>
-      <c r="AH89" s="76"/>
-      <c r="AI89" s="76"/>
-      <c r="AJ89" s="74"/>
+        <v>88</v>
+      </c>
+      <c r="AC89" s="73"/>
+      <c r="AD89" s="74"/>
+      <c r="AE89" s="75"/>
+      <c r="AF89" s="75"/>
+      <c r="AG89" s="75"/>
+      <c r="AH89" s="75"/>
+      <c r="AI89" s="75"/>
+      <c r="AJ89" s="73"/>
     </row>
     <row r="90" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A90" s="73"/>
+      <c r="A90" s="72"/>
       <c r="C90" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC90" s="74"/>
-      <c r="AD90" s="75"/>
-      <c r="AE90" s="76"/>
-      <c r="AF90" s="76"/>
-      <c r="AG90" s="76"/>
-      <c r="AH90" s="76"/>
-      <c r="AI90" s="76"/>
-      <c r="AJ90" s="74"/>
+        <v>145</v>
+      </c>
+      <c r="AC90" s="73"/>
+      <c r="AD90" s="74"/>
+      <c r="AE90" s="75"/>
+      <c r="AF90" s="75"/>
+      <c r="AG90" s="75"/>
+      <c r="AH90" s="75"/>
+      <c r="AI90" s="75"/>
+      <c r="AJ90" s="73"/>
     </row>
     <row r="91" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A91" s="73"/>
-      <c r="AC91" s="74"/>
-      <c r="AD91" s="75"/>
-      <c r="AE91" s="76"/>
-      <c r="AF91" s="76"/>
-      <c r="AG91" s="76"/>
-      <c r="AH91" s="76"/>
-      <c r="AI91" s="76"/>
-      <c r="AJ91" s="74"/>
+      <c r="A91" s="72"/>
+      <c r="AC91" s="73"/>
+      <c r="AD91" s="74"/>
+      <c r="AE91" s="75"/>
+      <c r="AF91" s="75"/>
+      <c r="AG91" s="75"/>
+      <c r="AH91" s="75"/>
+      <c r="AI91" s="75"/>
+      <c r="AJ91" s="73"/>
     </row>
     <row r="92" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A92" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC92" s="74"/>
-      <c r="AD92" s="75"/>
-      <c r="AE92" s="76"/>
-      <c r="AF92" s="76"/>
-      <c r="AG92" s="76"/>
-      <c r="AH92" s="76"/>
-      <c r="AI92" s="76"/>
-      <c r="AJ92" s="74"/>
+        <v>100</v>
+      </c>
+      <c r="AC92" s="73"/>
+      <c r="AD92" s="74"/>
+      <c r="AE92" s="75"/>
+      <c r="AF92" s="75"/>
+      <c r="AG92" s="75"/>
+      <c r="AH92" s="75"/>
+      <c r="AI92" s="75"/>
+      <c r="AJ92" s="73"/>
     </row>
     <row r="93" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A93" s="57"/>
       <c r="B93" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC93" s="74"/>
-      <c r="AD93" s="75"/>
-      <c r="AE93" s="76"/>
-      <c r="AF93" s="76"/>
-      <c r="AG93" s="76"/>
-      <c r="AH93" s="76"/>
-      <c r="AI93" s="76"/>
-      <c r="AJ93" s="74"/>
+        <v>86</v>
+      </c>
+      <c r="AC93" s="73"/>
+      <c r="AD93" s="74"/>
+      <c r="AE93" s="75"/>
+      <c r="AF93" s="75"/>
+      <c r="AG93" s="75"/>
+      <c r="AH93" s="75"/>
+      <c r="AI93" s="75"/>
+      <c r="AJ93" s="73"/>
     </row>
     <row r="94" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A94" s="57"/>
       <c r="B94" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC94" s="74"/>
-      <c r="AD94" s="75"/>
-      <c r="AE94" s="76"/>
-      <c r="AF94" s="76"/>
-      <c r="AG94" s="76"/>
-      <c r="AH94" s="76"/>
-      <c r="AI94" s="76"/>
-      <c r="AJ94" s="74"/>
+        <v>155</v>
+      </c>
+      <c r="AC94" s="73"/>
+      <c r="AD94" s="74"/>
+      <c r="AE94" s="75"/>
+      <c r="AF94" s="75"/>
+      <c r="AG94" s="75"/>
+      <c r="AH94" s="75"/>
+      <c r="AI94" s="75"/>
+      <c r="AJ94" s="73"/>
     </row>
     <row r="95" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A95" s="73"/>
+      <c r="A95" s="72"/>
       <c r="B95" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC95" s="74"/>
-      <c r="AD95" s="75"/>
-      <c r="AE95" s="76"/>
-      <c r="AF95" s="76"/>
-      <c r="AG95" s="76"/>
-      <c r="AH95" s="76"/>
-      <c r="AI95" s="76"/>
-      <c r="AJ95" s="74"/>
+        <v>101</v>
+      </c>
+      <c r="AC95" s="73"/>
+      <c r="AD95" s="74"/>
+      <c r="AE95" s="75"/>
+      <c r="AF95" s="75"/>
+      <c r="AG95" s="75"/>
+      <c r="AH95" s="75"/>
+      <c r="AI95" s="75"/>
+      <c r="AJ95" s="73"/>
     </row>
     <row r="96" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A96" s="73"/>
-      <c r="AC96" s="74"/>
-      <c r="AD96" s="75"/>
-      <c r="AE96" s="76"/>
-      <c r="AF96" s="76"/>
-      <c r="AG96" s="76"/>
-      <c r="AH96" s="76"/>
-      <c r="AI96" s="76"/>
-      <c r="AJ96" s="74"/>
+      <c r="A96" s="72"/>
+      <c r="AC96" s="73"/>
+      <c r="AD96" s="74"/>
+      <c r="AE96" s="75"/>
+      <c r="AF96" s="75"/>
+      <c r="AG96" s="75"/>
+      <c r="AH96" s="75"/>
+      <c r="AI96" s="75"/>
+      <c r="AJ96" s="73"/>
     </row>
     <row r="97" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A97" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC97" s="73"/>
+      <c r="AD97" s="74"/>
+      <c r="AE97" s="75"/>
+      <c r="AF97" s="75"/>
+      <c r="AG97" s="75"/>
+      <c r="AH97" s="75"/>
+      <c r="AI97" s="75"/>
+      <c r="AJ97" s="73"/>
+    </row>
+    <row r="98" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A98" s="72"/>
+      <c r="B98" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B97" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC97" s="74"/>
-      <c r="AD97" s="75"/>
-      <c r="AE97" s="76"/>
-      <c r="AF97" s="76"/>
-      <c r="AG97" s="76"/>
-      <c r="AH97" s="76"/>
-      <c r="AI97" s="76"/>
-      <c r="AJ97" s="74"/>
-    </row>
-    <row r="98" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A98" s="73"/>
-      <c r="B98" s="44" t="s">
+      <c r="AC98" s="73"/>
+      <c r="AD98" s="74"/>
+      <c r="AE98" s="75"/>
+      <c r="AF98" s="75"/>
+      <c r="AG98" s="75"/>
+      <c r="AH98" s="75"/>
+      <c r="AI98" s="75"/>
+      <c r="AJ98" s="73"/>
+    </row>
+    <row r="99" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A99" s="72"/>
+      <c r="C99" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC99" s="73"/>
+      <c r="AD99" s="74"/>
+      <c r="AE99" s="75"/>
+      <c r="AF99" s="75"/>
+      <c r="AG99" s="75"/>
+      <c r="AH99" s="75"/>
+      <c r="AI99" s="75"/>
+      <c r="AJ99" s="73"/>
+    </row>
+    <row r="100" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A100" s="72"/>
+      <c r="C100" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="AC98" s="74"/>
-      <c r="AD98" s="75"/>
-      <c r="AE98" s="76"/>
-      <c r="AF98" s="76"/>
-      <c r="AG98" s="76"/>
-      <c r="AH98" s="76"/>
-      <c r="AI98" s="76"/>
-      <c r="AJ98" s="74"/>
-    </row>
-    <row r="99" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A99" s="73"/>
-      <c r="C99" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC99" s="74"/>
-      <c r="AD99" s="75"/>
-      <c r="AE99" s="76"/>
-      <c r="AF99" s="76"/>
-      <c r="AG99" s="76"/>
-      <c r="AH99" s="76"/>
-      <c r="AI99" s="76"/>
-      <c r="AJ99" s="74"/>
-    </row>
-    <row r="100" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A100" s="73"/>
-      <c r="C100" s="44" t="s">
+      <c r="AC100" s="73"/>
+      <c r="AD100" s="74"/>
+      <c r="AE100" s="75"/>
+      <c r="AF100" s="75"/>
+      <c r="AG100" s="75"/>
+      <c r="AH100" s="75"/>
+      <c r="AI100" s="75"/>
+      <c r="AJ100" s="73"/>
+    </row>
+    <row r="101" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A101" s="72"/>
+      <c r="B101" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="AC100" s="74"/>
-      <c r="AD100" s="75"/>
-      <c r="AE100" s="76"/>
-      <c r="AF100" s="76"/>
-      <c r="AG100" s="76"/>
-      <c r="AH100" s="76"/>
-      <c r="AI100" s="76"/>
-      <c r="AJ100" s="74"/>
-    </row>
-    <row r="101" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A101" s="73"/>
-      <c r="B101" s="44" t="s">
+      <c r="AC101" s="73"/>
+      <c r="AD101" s="74"/>
+      <c r="AE101" s="75"/>
+      <c r="AF101" s="75"/>
+      <c r="AG101" s="75"/>
+      <c r="AH101" s="75"/>
+      <c r="AI101" s="75"/>
+      <c r="AJ101" s="73"/>
+    </row>
+    <row r="102" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A102" s="72"/>
+      <c r="C102" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="AC101" s="74"/>
-      <c r="AD101" s="75"/>
-      <c r="AE101" s="76"/>
-      <c r="AF101" s="76"/>
-      <c r="AG101" s="76"/>
-      <c r="AH101" s="76"/>
-      <c r="AI101" s="76"/>
-      <c r="AJ101" s="74"/>
-    </row>
-    <row r="102" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A102" s="73"/>
-      <c r="C102" s="44" t="s">
+      <c r="AC102" s="73"/>
+      <c r="AD102" s="74"/>
+      <c r="AE102" s="75"/>
+      <c r="AF102" s="75"/>
+      <c r="AG102" s="75"/>
+      <c r="AH102" s="75"/>
+      <c r="AI102" s="75"/>
+      <c r="AJ102" s="73"/>
+    </row>
+    <row r="103" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A103" s="72"/>
+      <c r="D103" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC103" s="73"/>
+      <c r="AD103" s="74"/>
+      <c r="AE103" s="75"/>
+      <c r="AF103" s="75"/>
+      <c r="AG103" s="75"/>
+      <c r="AH103" s="75"/>
+      <c r="AI103" s="75"/>
+      <c r="AJ103" s="73"/>
+    </row>
+    <row r="104" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A104" s="72"/>
+      <c r="D104" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="AC102" s="74"/>
-      <c r="AD102" s="75"/>
-      <c r="AE102" s="76"/>
-      <c r="AF102" s="76"/>
-      <c r="AG102" s="76"/>
-      <c r="AH102" s="76"/>
-      <c r="AI102" s="76"/>
-      <c r="AJ102" s="74"/>
-    </row>
-    <row r="103" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A103" s="73"/>
-      <c r="D103" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC103" s="74"/>
-      <c r="AD103" s="75"/>
-      <c r="AE103" s="76"/>
-      <c r="AF103" s="76"/>
-      <c r="AG103" s="76"/>
-      <c r="AH103" s="76"/>
-      <c r="AI103" s="76"/>
-      <c r="AJ103" s="74"/>
-    </row>
-    <row r="104" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A104" s="73"/>
-      <c r="D104" s="44" t="s">
+      <c r="AC104" s="73"/>
+      <c r="AD104" s="74"/>
+      <c r="AE104" s="75"/>
+      <c r="AF104" s="75"/>
+      <c r="AG104" s="75"/>
+      <c r="AH104" s="75"/>
+      <c r="AI104" s="75"/>
+      <c r="AJ104" s="73"/>
+    </row>
+    <row r="105" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A105" s="72"/>
+      <c r="E105" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="F105" s="63"/>
+      <c r="G105" s="63"/>
+      <c r="H105" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="I105" s="64"/>
+      <c r="J105" s="65"/>
+      <c r="K105" s="74"/>
+      <c r="L105" s="75"/>
+      <c r="M105" s="75"/>
+      <c r="N105" s="75"/>
+      <c r="AC105" s="73"/>
+      <c r="AD105" s="74"/>
+      <c r="AE105" s="75"/>
+      <c r="AF105" s="75"/>
+      <c r="AG105" s="75"/>
+      <c r="AH105" s="75"/>
+      <c r="AI105" s="75"/>
+      <c r="AJ105" s="73"/>
+    </row>
+    <row r="106" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A106" s="72"/>
+      <c r="E106" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="AC104" s="74"/>
-      <c r="AD104" s="75"/>
-      <c r="AE104" s="76"/>
-      <c r="AF104" s="76"/>
-      <c r="AG104" s="76"/>
-      <c r="AH104" s="76"/>
-      <c r="AI104" s="76"/>
-      <c r="AJ104" s="74"/>
-    </row>
-    <row r="105" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A105" s="73"/>
-      <c r="E105" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="F105" s="64"/>
-      <c r="G105" s="64"/>
-      <c r="H105" s="78" t="s">
+      <c r="F106" s="68"/>
+      <c r="G106" s="68"/>
+      <c r="H106" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="I105" s="65"/>
-      <c r="J105" s="66"/>
-      <c r="K105" s="75"/>
-      <c r="L105" s="76"/>
-      <c r="M105" s="76"/>
-      <c r="N105" s="76"/>
-      <c r="AC105" s="74"/>
-      <c r="AD105" s="75"/>
-      <c r="AE105" s="76"/>
-      <c r="AF105" s="76"/>
-      <c r="AG105" s="76"/>
-      <c r="AH105" s="76"/>
-      <c r="AI105" s="76"/>
-      <c r="AJ105" s="74"/>
-    </row>
-    <row r="106" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A106" s="73"/>
-      <c r="E106" s="68" t="s">
+      <c r="I106" s="68"/>
+      <c r="J106" s="61"/>
+      <c r="K106" s="74"/>
+      <c r="L106" s="75"/>
+      <c r="M106" s="75"/>
+      <c r="N106" s="75"/>
+      <c r="AC106" s="73"/>
+      <c r="AD106" s="74"/>
+      <c r="AE106" s="75"/>
+      <c r="AF106" s="75"/>
+      <c r="AG106" s="75"/>
+      <c r="AH106" s="75"/>
+      <c r="AI106" s="75"/>
+      <c r="AJ106" s="73"/>
+    </row>
+    <row r="107" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A107" s="72"/>
+      <c r="E107" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="F106" s="69"/>
-      <c r="G106" s="69"/>
-      <c r="H106" s="79" t="s">
+      <c r="F107" s="68"/>
+      <c r="G107" s="68"/>
+      <c r="H107" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="I106" s="69"/>
-      <c r="J106" s="61"/>
-      <c r="K106" s="75"/>
-      <c r="L106" s="76"/>
-      <c r="M106" s="76"/>
-      <c r="N106" s="76"/>
-      <c r="AC106" s="74"/>
-      <c r="AD106" s="75"/>
-      <c r="AE106" s="76"/>
-      <c r="AF106" s="76"/>
-      <c r="AG106" s="76"/>
-      <c r="AH106" s="76"/>
-      <c r="AI106" s="76"/>
-      <c r="AJ106" s="74"/>
-    </row>
-    <row r="107" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A107" s="73"/>
-      <c r="E107" s="68" t="s">
+      <c r="I107" s="68"/>
+      <c r="J107" s="61"/>
+      <c r="K107" s="74"/>
+      <c r="L107" s="75"/>
+      <c r="M107" s="75"/>
+      <c r="N107" s="75"/>
+      <c r="AC107" s="73"/>
+      <c r="AD107" s="74"/>
+      <c r="AE107" s="75"/>
+      <c r="AF107" s="75"/>
+      <c r="AG107" s="75"/>
+      <c r="AH107" s="75"/>
+      <c r="AI107" s="75"/>
+      <c r="AJ107" s="73"/>
+    </row>
+    <row r="108" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A108" s="72"/>
+      <c r="E108" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="F107" s="69"/>
-      <c r="G107" s="69"/>
-      <c r="H107" s="79" t="s">
+      <c r="F108" s="68"/>
+      <c r="G108" s="68"/>
+      <c r="H108" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="I107" s="69"/>
-      <c r="J107" s="61"/>
-      <c r="K107" s="75"/>
-      <c r="L107" s="76"/>
-      <c r="M107" s="76"/>
-      <c r="N107" s="76"/>
-      <c r="AC107" s="74"/>
-      <c r="AD107" s="75"/>
-      <c r="AE107" s="76"/>
-      <c r="AF107" s="76"/>
-      <c r="AG107" s="76"/>
-      <c r="AH107" s="76"/>
-      <c r="AI107" s="76"/>
-      <c r="AJ107" s="74"/>
-    </row>
-    <row r="108" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A108" s="73"/>
-      <c r="E108" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="F108" s="69"/>
-      <c r="G108" s="69"/>
-      <c r="H108" s="79" t="s">
+      <c r="I108" s="68"/>
+      <c r="J108" s="61"/>
+      <c r="K108" s="74"/>
+      <c r="L108" s="75"/>
+      <c r="M108" s="75"/>
+      <c r="N108" s="75"/>
+      <c r="AC108" s="73"/>
+      <c r="AD108" s="74"/>
+      <c r="AE108" s="75"/>
+      <c r="AF108" s="75"/>
+      <c r="AG108" s="75"/>
+      <c r="AH108" s="75"/>
+      <c r="AI108" s="75"/>
+      <c r="AJ108" s="73"/>
+    </row>
+    <row r="109" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A109" s="72"/>
+      <c r="D109" s="44" t="s">
         <v>117</v>
-      </c>
-      <c r="I108" s="69"/>
-      <c r="J108" s="61"/>
-      <c r="K108" s="75"/>
-      <c r="L108" s="76"/>
-      <c r="M108" s="76"/>
-      <c r="N108" s="76"/>
-      <c r="AC108" s="74"/>
-      <c r="AD108" s="75"/>
-      <c r="AE108" s="76"/>
-      <c r="AF108" s="76"/>
-      <c r="AG108" s="76"/>
-      <c r="AH108" s="76"/>
-      <c r="AI108" s="76"/>
-      <c r="AJ108" s="74"/>
-    </row>
-    <row r="109" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A109" s="73"/>
-      <c r="D109" s="44" t="s">
-        <v>118</v>
       </c>
       <c r="E109" s="41"/>
       <c r="F109" s="41"/>
       <c r="G109" s="41"/>
-      <c r="H109" s="80"/>
+      <c r="H109" s="79"/>
       <c r="I109" s="41"/>
       <c r="J109" s="41"/>
-      <c r="K109" s="76"/>
-      <c r="L109" s="76"/>
-      <c r="M109" s="76"/>
-      <c r="N109" s="76"/>
-      <c r="AC109" s="74"/>
-      <c r="AD109" s="75"/>
-      <c r="AE109" s="76"/>
-      <c r="AF109" s="76"/>
-      <c r="AG109" s="76"/>
-      <c r="AH109" s="76"/>
-      <c r="AI109" s="76"/>
-      <c r="AJ109" s="74"/>
+      <c r="K109" s="75"/>
+      <c r="L109" s="75"/>
+      <c r="M109" s="75"/>
+      <c r="N109" s="75"/>
+      <c r="AC109" s="73"/>
+      <c r="AD109" s="74"/>
+      <c r="AE109" s="75"/>
+      <c r="AF109" s="75"/>
+      <c r="AG109" s="75"/>
+      <c r="AH109" s="75"/>
+      <c r="AI109" s="75"/>
+      <c r="AJ109" s="73"/>
     </row>
     <row r="110" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A110" s="73"/>
+      <c r="A110" s="72"/>
       <c r="D110" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E110" s="41"/>
       <c r="F110" s="41"/>
       <c r="G110" s="41"/>
-      <c r="H110" s="80"/>
+      <c r="H110" s="79"/>
       <c r="I110" s="41"/>
       <c r="J110" s="41"/>
-      <c r="K110" s="76"/>
-      <c r="L110" s="76"/>
-      <c r="M110" s="76"/>
-      <c r="N110" s="76"/>
-      <c r="AC110" s="74"/>
-      <c r="AD110" s="75"/>
-      <c r="AE110" s="76"/>
-      <c r="AF110" s="76"/>
-      <c r="AG110" s="76"/>
-      <c r="AH110" s="76"/>
-      <c r="AI110" s="76"/>
-      <c r="AJ110" s="74"/>
+      <c r="K110" s="75"/>
+      <c r="L110" s="75"/>
+      <c r="M110" s="75"/>
+      <c r="N110" s="75"/>
+      <c r="AC110" s="73"/>
+      <c r="AD110" s="74"/>
+      <c r="AE110" s="75"/>
+      <c r="AF110" s="75"/>
+      <c r="AG110" s="75"/>
+      <c r="AH110" s="75"/>
+      <c r="AI110" s="75"/>
+      <c r="AJ110" s="73"/>
     </row>
     <row r="111" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A111" s="77"/>
+      <c r="A111" s="76"/>
       <c r="C111" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC111" s="74"/>
-      <c r="AD111" s="75"/>
-      <c r="AE111" s="76"/>
-      <c r="AF111" s="76"/>
-      <c r="AG111" s="76"/>
-      <c r="AH111" s="76"/>
-      <c r="AI111" s="76"/>
-      <c r="AJ111" s="74"/>
+        <v>118</v>
+      </c>
+      <c r="AC111" s="73"/>
+      <c r="AD111" s="74"/>
+      <c r="AE111" s="75"/>
+      <c r="AF111" s="75"/>
+      <c r="AG111" s="75"/>
+      <c r="AH111" s="75"/>
+      <c r="AI111" s="75"/>
+      <c r="AJ111" s="73"/>
     </row>
     <row r="112" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A112" s="77"/>
+      <c r="A112" s="76"/>
       <c r="D112" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC112" s="74"/>
-      <c r="AD112" s="75"/>
-      <c r="AE112" s="76"/>
-      <c r="AF112" s="76"/>
-      <c r="AG112" s="76"/>
-      <c r="AH112" s="76"/>
-      <c r="AI112" s="76"/>
-      <c r="AJ112" s="74"/>
+        <v>86</v>
+      </c>
+      <c r="AC112" s="73"/>
+      <c r="AD112" s="74"/>
+      <c r="AE112" s="75"/>
+      <c r="AF112" s="75"/>
+      <c r="AG112" s="75"/>
+      <c r="AH112" s="75"/>
+      <c r="AI112" s="75"/>
+      <c r="AJ112" s="73"/>
     </row>
     <row r="113" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A113" s="77"/>
+      <c r="A113" s="76"/>
       <c r="D113" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC113" s="74"/>
-      <c r="AD113" s="75"/>
-      <c r="AE113" s="76"/>
-      <c r="AF113" s="76"/>
-      <c r="AG113" s="76"/>
-      <c r="AH113" s="76"/>
-      <c r="AI113" s="76"/>
-      <c r="AJ113" s="74"/>
+        <v>106</v>
+      </c>
+      <c r="AC113" s="73"/>
+      <c r="AD113" s="74"/>
+      <c r="AE113" s="75"/>
+      <c r="AF113" s="75"/>
+      <c r="AG113" s="75"/>
+      <c r="AH113" s="75"/>
+      <c r="AI113" s="75"/>
+      <c r="AJ113" s="73"/>
     </row>
     <row r="114" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A114" s="77"/>
-      <c r="AC114" s="74"/>
-      <c r="AD114" s="75"/>
-      <c r="AE114" s="76"/>
-      <c r="AF114" s="76"/>
-      <c r="AG114" s="76"/>
-      <c r="AH114" s="76"/>
-      <c r="AI114" s="76"/>
-      <c r="AJ114" s="74"/>
+      <c r="A114" s="76"/>
+      <c r="AC114" s="73"/>
+      <c r="AD114" s="74"/>
+      <c r="AE114" s="75"/>
+      <c r="AF114" s="75"/>
+      <c r="AG114" s="75"/>
+      <c r="AH114" s="75"/>
+      <c r="AI114" s="75"/>
+      <c r="AJ114" s="73"/>
     </row>
     <row r="115" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A115" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B115" s="17" t="s">
+      <c r="AC115" s="73"/>
+      <c r="AD115" s="74"/>
+      <c r="AE115" s="75"/>
+      <c r="AF115" s="75"/>
+      <c r="AG115" s="75"/>
+      <c r="AH115" s="75"/>
+      <c r="AI115" s="75"/>
+      <c r="AJ115" s="73"/>
+    </row>
+    <row r="116" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A116" s="76"/>
+      <c r="B116" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC116" s="73"/>
+      <c r="AD116" s="74"/>
+      <c r="AE116" s="75"/>
+      <c r="AF116" s="75"/>
+      <c r="AG116" s="75"/>
+      <c r="AH116" s="75"/>
+      <c r="AI116" s="75"/>
+      <c r="AJ116" s="73"/>
+    </row>
+    <row r="117" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A117" s="76"/>
+      <c r="C117" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="AC115" s="74"/>
-      <c r="AD115" s="75"/>
-      <c r="AE115" s="76"/>
-      <c r="AF115" s="76"/>
-      <c r="AG115" s="76"/>
-      <c r="AH115" s="76"/>
-      <c r="AI115" s="76"/>
-      <c r="AJ115" s="74"/>
-    </row>
-    <row r="116" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A116" s="77"/>
-      <c r="B116" s="44" t="s">
+      <c r="AC117" s="73"/>
+      <c r="AD117" s="74"/>
+      <c r="AE117" s="75"/>
+      <c r="AF117" s="75"/>
+      <c r="AG117" s="75"/>
+      <c r="AH117" s="75"/>
+      <c r="AI117" s="75"/>
+      <c r="AJ117" s="73"/>
+    </row>
+    <row r="118" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A118" s="76"/>
+      <c r="C118" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC118" s="73"/>
+      <c r="AD118" s="74"/>
+      <c r="AE118" s="75"/>
+      <c r="AF118" s="75"/>
+      <c r="AG118" s="75"/>
+      <c r="AH118" s="75"/>
+      <c r="AI118" s="75"/>
+      <c r="AJ118" s="73"/>
+    </row>
+    <row r="119" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A119" s="76"/>
+      <c r="C119" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC119" s="73"/>
+      <c r="AD119" s="74"/>
+      <c r="AE119" s="75"/>
+      <c r="AF119" s="75"/>
+      <c r="AG119" s="75"/>
+      <c r="AH119" s="75"/>
+      <c r="AI119" s="75"/>
+      <c r="AJ119" s="73"/>
+    </row>
+    <row r="120" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A120" s="76"/>
+      <c r="B120" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC120" s="73"/>
+      <c r="AD120" s="74"/>
+      <c r="AE120" s="75"/>
+      <c r="AF120" s="75"/>
+      <c r="AG120" s="75"/>
+      <c r="AH120" s="75"/>
+      <c r="AI120" s="75"/>
+      <c r="AJ120" s="73"/>
+    </row>
+    <row r="121" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A121" s="76"/>
+      <c r="C121" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC121" s="73"/>
+      <c r="AD121" s="74"/>
+      <c r="AE121" s="75"/>
+      <c r="AF121" s="75"/>
+      <c r="AG121" s="75"/>
+      <c r="AH121" s="75"/>
+      <c r="AI121" s="75"/>
+      <c r="AJ121" s="73"/>
+    </row>
+    <row r="122" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A122" s="76"/>
+      <c r="B122" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="AC116" s="74"/>
-      <c r="AD116" s="75"/>
-      <c r="AE116" s="76"/>
-      <c r="AF116" s="76"/>
-      <c r="AG116" s="76"/>
-      <c r="AH116" s="76"/>
-      <c r="AI116" s="76"/>
-      <c r="AJ116" s="74"/>
-    </row>
-    <row r="117" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A117" s="77"/>
-      <c r="C117" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC117" s="74"/>
-      <c r="AD117" s="75"/>
-      <c r="AE117" s="76"/>
-      <c r="AF117" s="76"/>
-      <c r="AG117" s="76"/>
-      <c r="AH117" s="76"/>
-      <c r="AI117" s="76"/>
-      <c r="AJ117" s="74"/>
-    </row>
-    <row r="118" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A118" s="77"/>
-      <c r="C118" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC118" s="74"/>
-      <c r="AD118" s="75"/>
-      <c r="AE118" s="76"/>
-      <c r="AF118" s="76"/>
-      <c r="AG118" s="76"/>
-      <c r="AH118" s="76"/>
-      <c r="AI118" s="76"/>
-      <c r="AJ118" s="74"/>
-    </row>
-    <row r="119" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A119" s="77"/>
-      <c r="C119" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC119" s="74"/>
-      <c r="AD119" s="75"/>
-      <c r="AE119" s="76"/>
-      <c r="AF119" s="76"/>
-      <c r="AG119" s="76"/>
-      <c r="AH119" s="76"/>
-      <c r="AI119" s="76"/>
-      <c r="AJ119" s="74"/>
-    </row>
-    <row r="120" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A120" s="77"/>
-      <c r="B120" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC120" s="74"/>
-      <c r="AD120" s="75"/>
-      <c r="AE120" s="76"/>
-      <c r="AF120" s="76"/>
-      <c r="AG120" s="76"/>
-      <c r="AH120" s="76"/>
-      <c r="AI120" s="76"/>
-      <c r="AJ120" s="74"/>
-    </row>
-    <row r="121" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A121" s="77"/>
-      <c r="C121" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC121" s="74"/>
-      <c r="AD121" s="75"/>
-      <c r="AE121" s="76"/>
-      <c r="AF121" s="76"/>
-      <c r="AG121" s="76"/>
-      <c r="AH121" s="76"/>
-      <c r="AI121" s="76"/>
-      <c r="AJ121" s="74"/>
-    </row>
-    <row r="122" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A122" s="77"/>
-      <c r="B122" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC122" s="74"/>
-      <c r="AD122" s="75"/>
-      <c r="AE122" s="76"/>
-      <c r="AF122" s="76"/>
-      <c r="AG122" s="76"/>
-      <c r="AH122" s="76"/>
-      <c r="AI122" s="76"/>
-      <c r="AJ122" s="74"/>
+      <c r="AC122" s="73"/>
+      <c r="AD122" s="74"/>
+      <c r="AE122" s="75"/>
+      <c r="AF122" s="75"/>
+      <c r="AG122" s="75"/>
+      <c r="AH122" s="75"/>
+      <c r="AI122" s="75"/>
+      <c r="AJ122" s="73"/>
     </row>
     <row r="123" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A123" s="77"/>
+      <c r="A123" s="76"/>
       <c r="C123" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC123" s="74"/>
-      <c r="AD123" s="75"/>
-      <c r="AE123" s="76"/>
-      <c r="AF123" s="76"/>
-      <c r="AG123" s="76"/>
-      <c r="AH123" s="76"/>
-      <c r="AI123" s="76"/>
-      <c r="AJ123" s="74"/>
+        <v>101</v>
+      </c>
+      <c r="AC123" s="73"/>
+      <c r="AD123" s="74"/>
+      <c r="AE123" s="75"/>
+      <c r="AF123" s="75"/>
+      <c r="AG123" s="75"/>
+      <c r="AH123" s="75"/>
+      <c r="AI123" s="75"/>
+      <c r="AJ123" s="73"/>
     </row>
     <row r="124" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A124" s="73"/>
-      <c r="AC124" s="74"/>
-      <c r="AD124" s="75"/>
-      <c r="AE124" s="76"/>
-      <c r="AF124" s="76"/>
-      <c r="AG124" s="76"/>
-      <c r="AH124" s="76"/>
-      <c r="AI124" s="76"/>
-      <c r="AJ124" s="74"/>
+      <c r="A124" s="72"/>
+      <c r="AC124" s="73"/>
+      <c r="AD124" s="74"/>
+      <c r="AE124" s="75"/>
+      <c r="AF124" s="75"/>
+      <c r="AG124" s="75"/>
+      <c r="AH124" s="75"/>
+      <c r="AI124" s="75"/>
+      <c r="AJ124" s="73"/>
     </row>
     <row r="125" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A125" s="73"/>
-      <c r="AC125" s="74"/>
-      <c r="AD125" s="75"/>
-      <c r="AE125" s="76"/>
-      <c r="AF125" s="76"/>
-      <c r="AG125" s="76"/>
-      <c r="AH125" s="76"/>
-      <c r="AI125" s="76"/>
-      <c r="AJ125" s="74"/>
+      <c r="A125" s="72"/>
+      <c r="AC125" s="73"/>
+      <c r="AD125" s="74"/>
+      <c r="AE125" s="75"/>
+      <c r="AF125" s="75"/>
+      <c r="AG125" s="75"/>
+      <c r="AH125" s="75"/>
+      <c r="AI125" s="75"/>
+      <c r="AJ125" s="73"/>
     </row>
     <row r="126" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A126" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC126" s="74"/>
-      <c r="AD126" s="75"/>
-      <c r="AE126" s="76"/>
-      <c r="AF126" s="76"/>
-      <c r="AG126" s="76"/>
-      <c r="AH126" s="76"/>
-      <c r="AI126" s="76"/>
-      <c r="AJ126" s="74"/>
+      <c r="A126" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC126" s="73"/>
+      <c r="AD126" s="74"/>
+      <c r="AE126" s="75"/>
+      <c r="AF126" s="75"/>
+      <c r="AG126" s="75"/>
+      <c r="AH126" s="75"/>
+      <c r="AI126" s="75"/>
+      <c r="AJ126" s="73"/>
     </row>
     <row r="127" spans="1:36" ht="15" customHeight="1">
       <c r="A127" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="B127" s="44" t="s">
         <v>148</v>
-      </c>
-      <c r="B127" s="44" t="s">
-        <v>149</v>
       </c>
       <c r="G127" s="17"/>
       <c r="AC127" s="27"/>
@@ -6211,7 +6205,7 @@
       <c r="A128" s="57"/>
       <c r="B128" s="44"/>
       <c r="C128" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G128" s="17"/>
       <c r="AC128" s="27"/>
@@ -6226,25 +6220,25 @@
     <row r="129" spans="1:36" ht="15" customHeight="1">
       <c r="A129" s="57"/>
       <c r="B129" s="17"/>
-      <c r="C129" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="D129" s="64"/>
-      <c r="E129" s="64"/>
-      <c r="F129" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="G129" s="65"/>
-      <c r="H129" s="65"/>
-      <c r="I129" s="65"/>
-      <c r="J129" s="65"/>
-      <c r="K129" s="65"/>
-      <c r="L129" s="66"/>
-      <c r="M129" s="76"/>
-      <c r="N129" s="76"/>
-      <c r="O129" s="76"/>
-      <c r="P129" s="76"/>
-      <c r="Q129" s="76"/>
+      <c r="C129" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="D129" s="63"/>
+      <c r="E129" s="63"/>
+      <c r="F129" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="G129" s="64"/>
+      <c r="H129" s="64"/>
+      <c r="I129" s="64"/>
+      <c r="J129" s="64"/>
+      <c r="K129" s="64"/>
+      <c r="L129" s="65"/>
+      <c r="M129" s="75"/>
+      <c r="N129" s="75"/>
+      <c r="O129" s="75"/>
+      <c r="P129" s="75"/>
+      <c r="Q129" s="75"/>
       <c r="AC129" s="27"/>
       <c r="AD129" s="26"/>
       <c r="AE129" s="41"/>
@@ -6257,25 +6251,25 @@
     <row r="130" spans="1:36" ht="15" customHeight="1">
       <c r="A130" s="57"/>
       <c r="B130" s="17"/>
-      <c r="C130" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="D130" s="69"/>
-      <c r="E130" s="69"/>
-      <c r="F130" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="G130" s="69"/>
-      <c r="H130" s="69"/>
-      <c r="I130" s="69"/>
-      <c r="J130" s="69"/>
-      <c r="K130" s="69"/>
+      <c r="C130" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="D130" s="68"/>
+      <c r="E130" s="68"/>
+      <c r="F130" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="G130" s="68"/>
+      <c r="H130" s="68"/>
+      <c r="I130" s="68"/>
+      <c r="J130" s="68"/>
+      <c r="K130" s="68"/>
       <c r="L130" s="61"/>
-      <c r="M130" s="76"/>
-      <c r="N130" s="76"/>
-      <c r="O130" s="76"/>
-      <c r="P130" s="76"/>
-      <c r="Q130" s="76"/>
+      <c r="M130" s="75"/>
+      <c r="N130" s="75"/>
+      <c r="O130" s="75"/>
+      <c r="P130" s="75"/>
+      <c r="Q130" s="75"/>
       <c r="AC130" s="27"/>
       <c r="AD130" s="26"/>
       <c r="AE130" s="41"/>
@@ -6288,25 +6282,25 @@
     <row r="131" spans="1:36" ht="15" customHeight="1">
       <c r="A131" s="57"/>
       <c r="B131" s="17"/>
-      <c r="C131" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="D131" s="69"/>
-      <c r="E131" s="69"/>
-      <c r="F131" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="G131" s="69"/>
-      <c r="H131" s="69"/>
-      <c r="I131" s="69"/>
-      <c r="J131" s="69"/>
-      <c r="K131" s="69"/>
+      <c r="C131" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="D131" s="68"/>
+      <c r="E131" s="68"/>
+      <c r="F131" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="G131" s="68"/>
+      <c r="H131" s="68"/>
+      <c r="I131" s="68"/>
+      <c r="J131" s="68"/>
+      <c r="K131" s="68"/>
       <c r="L131" s="61"/>
-      <c r="M131" s="76"/>
-      <c r="N131" s="76"/>
-      <c r="O131" s="76"/>
-      <c r="P131" s="76"/>
-      <c r="Q131" s="76"/>
+      <c r="M131" s="75"/>
+      <c r="N131" s="75"/>
+      <c r="O131" s="75"/>
+      <c r="P131" s="75"/>
+      <c r="Q131" s="75"/>
       <c r="AC131" s="27"/>
       <c r="AD131" s="26"/>
       <c r="AE131" s="41"/>
@@ -6319,25 +6313,25 @@
     <row r="132" spans="1:36" ht="15" customHeight="1">
       <c r="A132" s="57"/>
       <c r="B132" s="17"/>
-      <c r="C132" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="D132" s="69"/>
-      <c r="E132" s="69"/>
-      <c r="F132" s="79" t="s">
-        <v>99</v>
-      </c>
-      <c r="G132" s="69"/>
-      <c r="H132" s="69"/>
-      <c r="I132" s="69"/>
-      <c r="J132" s="69"/>
-      <c r="K132" s="69"/>
+      <c r="C132" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="D132" s="68"/>
+      <c r="E132" s="68"/>
+      <c r="F132" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="G132" s="68"/>
+      <c r="H132" s="68"/>
+      <c r="I132" s="68"/>
+      <c r="J132" s="68"/>
+      <c r="K132" s="68"/>
       <c r="L132" s="61"/>
-      <c r="M132" s="76"/>
-      <c r="N132" s="76"/>
-      <c r="O132" s="76"/>
-      <c r="P132" s="76"/>
-      <c r="Q132" s="76"/>
+      <c r="M132" s="75"/>
+      <c r="N132" s="75"/>
+      <c r="O132" s="75"/>
+      <c r="P132" s="75"/>
+      <c r="Q132" s="75"/>
       <c r="AC132" s="27"/>
       <c r="AD132" s="26"/>
       <c r="AE132" s="41"/>
@@ -6348,34 +6342,34 @@
       <c r="AJ132" s="27"/>
     </row>
     <row r="133" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A133" s="73"/>
-      <c r="C133" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="D133" s="69"/>
-      <c r="E133" s="69"/>
-      <c r="F133" s="79" t="s">
-        <v>100</v>
-      </c>
-      <c r="G133" s="69"/>
-      <c r="H133" s="69"/>
-      <c r="I133" s="69"/>
-      <c r="J133" s="69"/>
-      <c r="K133" s="69"/>
+      <c r="A133" s="72"/>
+      <c r="C133" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="D133" s="68"/>
+      <c r="E133" s="68"/>
+      <c r="F133" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="G133" s="68"/>
+      <c r="H133" s="68"/>
+      <c r="I133" s="68"/>
+      <c r="J133" s="68"/>
+      <c r="K133" s="68"/>
       <c r="L133" s="61"/>
-      <c r="M133" s="76"/>
-      <c r="N133" s="76"/>
-      <c r="O133" s="76"/>
-      <c r="P133" s="76"/>
-      <c r="Q133" s="76"/>
-      <c r="AC133" s="74"/>
-      <c r="AD133" s="75"/>
-      <c r="AE133" s="76"/>
-      <c r="AF133" s="76"/>
-      <c r="AG133" s="76"/>
-      <c r="AH133" s="76"/>
-      <c r="AI133" s="76"/>
-      <c r="AJ133" s="74"/>
+      <c r="M133" s="75"/>
+      <c r="N133" s="75"/>
+      <c r="O133" s="75"/>
+      <c r="P133" s="75"/>
+      <c r="Q133" s="75"/>
+      <c r="AC133" s="73"/>
+      <c r="AD133" s="74"/>
+      <c r="AE133" s="75"/>
+      <c r="AF133" s="75"/>
+      <c r="AG133" s="75"/>
+      <c r="AH133" s="75"/>
+      <c r="AI133" s="75"/>
+      <c r="AJ133" s="73"/>
     </row>
     <row r="134" spans="1:36" ht="15" customHeight="1">
       <c r="A134" s="58"/>
@@ -6417,11 +6411,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I2:X2"/>
-    <mergeCell ref="I1:X1"/>
-    <mergeCell ref="E2:H2"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AG2:AJ2"/>
     <mergeCell ref="AA1:AD1"/>
@@ -6430,6 +6419,11 @@
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I2:X2"/>
+    <mergeCell ref="I1:X1"/>
+    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -6446,245 +6440,245 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="81"/>
-    <col min="2" max="2" width="24.5546875" style="81" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" style="81" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="81" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="81" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="81"/>
-    <col min="7" max="7" width="8.88671875" style="81" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="81"/>
-    <col min="9" max="9" width="8.88671875" style="81" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="81"/>
+    <col min="1" max="1" width="8.88671875" style="80"/>
+    <col min="2" max="2" width="24.5546875" style="80" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" style="80" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="80" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="80" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="80"/>
+    <col min="7" max="7" width="8.88671875" style="80" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="80"/>
+    <col min="9" max="9" width="8.88671875" style="80" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="80"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="13.2" customHeight="1">
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="119" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="119" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="120" t="s">
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="119"/>
+      <c r="C19" s="119"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+    </row>
+    <row r="23" spans="2:3" ht="13.2" customHeight="1">
+      <c r="B23" s="119" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="120" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="119"/>
+      <c r="C24" s="119"/>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="119"/>
+      <c r="C31" s="119"/>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="119"/>
+      <c r="C33" s="119"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="119"/>
+      <c r="C35" s="119"/>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="119"/>
+      <c r="C37" s="119"/>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="119"/>
+      <c r="C39" s="119"/>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+    </row>
+    <row r="43" spans="2:3" ht="13.2" customHeight="1">
+      <c r="B43" s="119" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="120"/>
-      <c r="C19" s="120"/>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-    </row>
-    <row r="23" spans="2:3" ht="13.2" customHeight="1">
-      <c r="B23" s="120" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="121" t="s">
+      <c r="C43" s="120" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="120"/>
-      <c r="C25" s="120"/>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="120"/>
-      <c r="C26" s="120"/>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="120"/>
-      <c r="C27" s="120"/>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="120"/>
-      <c r="C28" s="120"/>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="120"/>
-      <c r="C29" s="120"/>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="120"/>
-      <c r="C31" s="120"/>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="120"/>
-      <c r="C32" s="120"/>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="120"/>
-      <c r="C33" s="120"/>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="120"/>
-      <c r="C34" s="120"/>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="120"/>
-      <c r="C35" s="120"/>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="120"/>
-      <c r="C36" s="120"/>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="120"/>
-      <c r="C37" s="120"/>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="120"/>
-      <c r="C38" s="120"/>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="120"/>
-      <c r="C39" s="120"/>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="120"/>
-      <c r="C40" s="120"/>
-    </row>
-    <row r="43" spans="2:3" ht="13.2" customHeight="1">
-      <c r="B43" s="120" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" s="121" t="s">
-        <v>143</v>
-      </c>
-    </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="120"/>
-      <c r="C44" s="120"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="120"/>
-      <c r="C45" s="120"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="119"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="120"/>
-      <c r="C46" s="120"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="119"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="120"/>
-      <c r="C47" s="120"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="119"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="120"/>
-      <c r="C48" s="120"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="120"/>
-      <c r="C49" s="120"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="119"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="120"/>
-      <c r="C50" s="120"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="120"/>
-      <c r="C51" s="120"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="119"/>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="120"/>
-      <c r="C52" s="120"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119"/>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="120"/>
-      <c r="C54" s="120"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="120"/>
-      <c r="C55" s="120"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="119"/>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="120"/>
-      <c r="C56" s="120"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="120"/>
-      <c r="C57" s="120"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="119"/>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="120"/>
-      <c r="C58" s="120"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="120"/>
-      <c r="C59" s="120"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="120"/>
-      <c r="C60" s="120"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6697,6 +6691,6 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>